--- a/mercados/embig_mexico.xlsx
+++ b/mercados/embig_mexico.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3284"/>
+  <dimension ref="A1:C3286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36499,6 +36499,28 @@
         <v>44775</v>
       </c>
     </row>
+    <row r="3285" spans="1:3">
+      <c r="A3285" s="1">
+        <v>3283</v>
+      </c>
+      <c r="B3285">
+        <v>439</v>
+      </c>
+      <c r="C3285" s="2">
+        <v>44776</v>
+      </c>
+    </row>
+    <row r="3286" spans="1:3">
+      <c r="A3286" s="1">
+        <v>3284</v>
+      </c>
+      <c r="B3286">
+        <v>426</v>
+      </c>
+      <c r="C3286" s="2">
+        <v>44777</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig_mexico.xlsx
+++ b/mercados/embig_mexico.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3286"/>
+  <dimension ref="A1:C3289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36521,6 +36521,39 @@
         <v>44777</v>
       </c>
     </row>
+    <row r="3287" spans="1:3">
+      <c r="A3287" s="1">
+        <v>3285</v>
+      </c>
+      <c r="B3287">
+        <v>413</v>
+      </c>
+      <c r="C3287" s="2">
+        <v>44778</v>
+      </c>
+    </row>
+    <row r="3288" spans="1:3">
+      <c r="A3288" s="1">
+        <v>3286</v>
+      </c>
+      <c r="B3288">
+        <v>416</v>
+      </c>
+      <c r="C3288" s="2">
+        <v>44781</v>
+      </c>
+    </row>
+    <row r="3289" spans="1:3">
+      <c r="A3289" s="1">
+        <v>3287</v>
+      </c>
+      <c r="B3289">
+        <v>428</v>
+      </c>
+      <c r="C3289" s="2">
+        <v>44782</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig_mexico.xlsx
+++ b/mercados/embig_mexico.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3289"/>
+  <dimension ref="A1:C3290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36554,6 +36554,17 @@
         <v>44782</v>
       </c>
     </row>
+    <row r="3290" spans="1:3">
+      <c r="A3290" s="1">
+        <v>3288</v>
+      </c>
+      <c r="B3290">
+        <v>406</v>
+      </c>
+      <c r="C3290" s="2">
+        <v>44783</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig_mexico.xlsx
+++ b/mercados/embig_mexico.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3290"/>
+  <dimension ref="A1:C3291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36565,6 +36565,17 @@
         <v>44783</v>
       </c>
     </row>
+    <row r="3291" spans="1:3">
+      <c r="A3291" s="1">
+        <v>3289</v>
+      </c>
+      <c r="B3291">
+        <v>395</v>
+      </c>
+      <c r="C3291" s="2">
+        <v>44784</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig_mexico.xlsx
+++ b/mercados/embig_mexico.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3291"/>
+  <dimension ref="A1:C3294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36576,6 +36576,39 @@
         <v>44784</v>
       </c>
     </row>
+    <row r="3292" spans="1:3">
+      <c r="A3292" s="1">
+        <v>3290</v>
+      </c>
+      <c r="B3292">
+        <v>404</v>
+      </c>
+      <c r="C3292" s="2">
+        <v>44785</v>
+      </c>
+    </row>
+    <row r="3293" spans="1:3">
+      <c r="A3293" s="1">
+        <v>3291</v>
+      </c>
+      <c r="B3293">
+        <v>409</v>
+      </c>
+      <c r="C3293" s="2">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="3294" spans="1:3">
+      <c r="A3294" s="1">
+        <v>3292</v>
+      </c>
+      <c r="B3294">
+        <v>415</v>
+      </c>
+      <c r="C3294" s="2">
+        <v>44789</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig_mexico.xlsx
+++ b/mercados/embig_mexico.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3294"/>
+  <dimension ref="A1:C3295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36609,6 +36609,17 @@
         <v>44789</v>
       </c>
     </row>
+    <row r="3295" spans="1:3">
+      <c r="A3295" s="1">
+        <v>3293</v>
+      </c>
+      <c r="B3295">
+        <v>424</v>
+      </c>
+      <c r="C3295" s="2">
+        <v>44790</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig_mexico.xlsx
+++ b/mercados/embig_mexico.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3295"/>
+  <dimension ref="A1:C3297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36620,6 +36620,28 @@
         <v>44790</v>
       </c>
     </row>
+    <row r="3296" spans="1:3">
+      <c r="A3296" s="1">
+        <v>3294</v>
+      </c>
+      <c r="B3296">
+        <v>420</v>
+      </c>
+      <c r="C3296" s="2">
+        <v>44791</v>
+      </c>
+    </row>
+    <row r="3297" spans="1:3">
+      <c r="A3297" s="1">
+        <v>3295</v>
+      </c>
+      <c r="B3297">
+        <v>422</v>
+      </c>
+      <c r="C3297" s="2">
+        <v>44792</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig_mexico.xlsx
+++ b/mercados/embig_mexico.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3297"/>
+  <dimension ref="A1:C3300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36642,6 +36642,39 @@
         <v>44792</v>
       </c>
     </row>
+    <row r="3298" spans="1:3">
+      <c r="A3298" s="1">
+        <v>3296</v>
+      </c>
+      <c r="B3298">
+        <v>430</v>
+      </c>
+      <c r="C3298" s="2">
+        <v>44795</v>
+      </c>
+    </row>
+    <row r="3299" spans="1:3">
+      <c r="A3299" s="1">
+        <v>3297</v>
+      </c>
+      <c r="B3299">
+        <v>418</v>
+      </c>
+      <c r="C3299" s="2">
+        <v>44796</v>
+      </c>
+    </row>
+    <row r="3300" spans="1:3">
+      <c r="A3300" s="1">
+        <v>3298</v>
+      </c>
+      <c r="B3300">
+        <v>408</v>
+      </c>
+      <c r="C3300" s="2">
+        <v>44797</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig_mexico.xlsx
+++ b/mercados/embig_mexico.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3300"/>
+  <dimension ref="A1:C3305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36675,6 +36675,61 @@
         <v>44797</v>
       </c>
     </row>
+    <row r="3301" spans="1:3">
+      <c r="A3301" s="1">
+        <v>3299</v>
+      </c>
+      <c r="B3301">
+        <v>410</v>
+      </c>
+      <c r="C3301" s="2">
+        <v>44798</v>
+      </c>
+    </row>
+    <row r="3302" spans="1:3">
+      <c r="A3302" s="1">
+        <v>3300</v>
+      </c>
+      <c r="B3302">
+        <v>416</v>
+      </c>
+      <c r="C3302" s="2">
+        <v>44799</v>
+      </c>
+    </row>
+    <row r="3303" spans="1:3">
+      <c r="A3303" s="1">
+        <v>3301</v>
+      </c>
+      <c r="B3303">
+        <v>426</v>
+      </c>
+      <c r="C3303" s="2">
+        <v>44802</v>
+      </c>
+    </row>
+    <row r="3304" spans="1:3">
+      <c r="A3304" s="1">
+        <v>3302</v>
+      </c>
+      <c r="B3304">
+        <v>432</v>
+      </c>
+      <c r="C3304" s="2">
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="3305" spans="1:3">
+      <c r="A3305" s="1">
+        <v>3303</v>
+      </c>
+      <c r="B3305">
+        <v>432</v>
+      </c>
+      <c r="C3305" s="2">
+        <v>44804</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig_mexico.xlsx
+++ b/mercados/embig_mexico.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3305"/>
+  <dimension ref="A1:C3308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36730,6 +36730,39 @@
         <v>44804</v>
       </c>
     </row>
+    <row r="3306" spans="1:3">
+      <c r="A3306" s="1">
+        <v>3304</v>
+      </c>
+      <c r="B3306">
+        <v>436</v>
+      </c>
+      <c r="C3306" s="2">
+        <v>44805</v>
+      </c>
+    </row>
+    <row r="3307" spans="1:3">
+      <c r="A3307" s="1">
+        <v>3305</v>
+      </c>
+      <c r="B3307">
+        <v>436</v>
+      </c>
+      <c r="C3307" s="2">
+        <v>44806</v>
+      </c>
+    </row>
+    <row r="3308" spans="1:3">
+      <c r="A3308" s="1">
+        <v>3306</v>
+      </c>
+      <c r="B3308">
+        <v>436</v>
+      </c>
+      <c r="C3308" s="2">
+        <v>44809</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig_mexico.xlsx
+++ b/mercados/embig_mexico.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3308"/>
+  <dimension ref="A1:C3310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36763,6 +36763,28 @@
         <v>44809</v>
       </c>
     </row>
+    <row r="3309" spans="1:3">
+      <c r="A3309" s="1">
+        <v>3307</v>
+      </c>
+      <c r="B3309">
+        <v>435</v>
+      </c>
+      <c r="C3309" s="2">
+        <v>44810</v>
+      </c>
+    </row>
+    <row r="3310" spans="1:3">
+      <c r="A3310" s="1">
+        <v>3308</v>
+      </c>
+      <c r="B3310">
+        <v>433</v>
+      </c>
+      <c r="C3310" s="2">
+        <v>44811</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig_mexico.xlsx
+++ b/mercados/embig_mexico.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3310"/>
+  <dimension ref="A1:C3316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36785,6 +36785,72 @@
         <v>44811</v>
       </c>
     </row>
+    <row r="3311" spans="1:3">
+      <c r="A3311" s="1">
+        <v>3309</v>
+      </c>
+      <c r="B3311">
+        <v>426</v>
+      </c>
+      <c r="C3311" s="2">
+        <v>44812</v>
+      </c>
+    </row>
+    <row r="3312" spans="1:3">
+      <c r="A3312" s="1">
+        <v>3310</v>
+      </c>
+      <c r="B3312">
+        <v>422</v>
+      </c>
+      <c r="C3312" s="2">
+        <v>44813</v>
+      </c>
+    </row>
+    <row r="3313" spans="1:3">
+      <c r="A3313" s="1">
+        <v>3311</v>
+      </c>
+      <c r="B3313">
+        <v>416</v>
+      </c>
+      <c r="C3313" s="2">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="3314" spans="1:3">
+      <c r="A3314" s="1">
+        <v>3312</v>
+      </c>
+      <c r="B3314">
+        <v>427</v>
+      </c>
+      <c r="C3314" s="2">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="3315" spans="1:3">
+      <c r="A3315" s="1">
+        <v>3313</v>
+      </c>
+      <c r="B3315">
+        <v>428</v>
+      </c>
+      <c r="C3315" s="2">
+        <v>44818</v>
+      </c>
+    </row>
+    <row r="3316" spans="1:3">
+      <c r="A3316" s="1">
+        <v>3314</v>
+      </c>
+      <c r="B3316">
+        <v>428</v>
+      </c>
+      <c r="C3316" s="2">
+        <v>44819</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig_mexico.xlsx
+++ b/mercados/embig_mexico.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3316"/>
+  <dimension ref="A1:C3320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36845,10 +36845,54 @@
         <v>3314</v>
       </c>
       <c r="B3316">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C3316" s="2">
         <v>44819</v>
+      </c>
+    </row>
+    <row r="3317" spans="1:3">
+      <c r="A3317" s="1">
+        <v>3315</v>
+      </c>
+      <c r="B3317">
+        <v>434</v>
+      </c>
+      <c r="C3317" s="2">
+        <v>44820</v>
+      </c>
+    </row>
+    <row r="3318" spans="1:3">
+      <c r="A3318" s="1">
+        <v>3316</v>
+      </c>
+      <c r="B3318">
+        <v>434</v>
+      </c>
+      <c r="C3318" s="2">
+        <v>44823</v>
+      </c>
+    </row>
+    <row r="3319" spans="1:3">
+      <c r="A3319" s="1">
+        <v>3317</v>
+      </c>
+      <c r="B3319">
+        <v>440</v>
+      </c>
+      <c r="C3319" s="2">
+        <v>44824</v>
+      </c>
+    </row>
+    <row r="3320" spans="1:3">
+      <c r="A3320" s="1">
+        <v>3318</v>
+      </c>
+      <c r="B3320">
+        <v>444</v>
+      </c>
+      <c r="C3320" s="2">
+        <v>44825</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/embig_mexico.xlsx
+++ b/mercados/embig_mexico.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3320"/>
+  <dimension ref="A1:C3324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36895,6 +36895,50 @@
         <v>44825</v>
       </c>
     </row>
+    <row r="3321" spans="1:3">
+      <c r="A3321" s="1">
+        <v>3319</v>
+      </c>
+      <c r="B3321">
+        <v>442</v>
+      </c>
+      <c r="C3321" s="2">
+        <v>44826</v>
+      </c>
+    </row>
+    <row r="3322" spans="1:3">
+      <c r="A3322" s="1">
+        <v>3320</v>
+      </c>
+      <c r="B3322">
+        <v>456</v>
+      </c>
+      <c r="C3322" s="2">
+        <v>44827</v>
+      </c>
+    </row>
+    <row r="3323" spans="1:3">
+      <c r="A3323" s="1">
+        <v>3321</v>
+      </c>
+      <c r="B3323">
+        <v>464</v>
+      </c>
+      <c r="C3323" s="2">
+        <v>44830</v>
+      </c>
+    </row>
+    <row r="3324" spans="1:3">
+      <c r="A3324" s="1">
+        <v>3322</v>
+      </c>
+      <c r="B3324">
+        <v>474</v>
+      </c>
+      <c r="C3324" s="2">
+        <v>44831</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig_mexico.xlsx
+++ b/mercados/embig_mexico.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3324"/>
+  <dimension ref="A1:C3330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36939,6 +36939,72 @@
         <v>44831</v>
       </c>
     </row>
+    <row r="3325" spans="1:3">
+      <c r="A3325" s="1">
+        <v>3323</v>
+      </c>
+      <c r="B3325">
+        <v>484</v>
+      </c>
+      <c r="C3325" s="2">
+        <v>44832</v>
+      </c>
+    </row>
+    <row r="3326" spans="1:3">
+      <c r="A3326" s="1">
+        <v>3324</v>
+      </c>
+      <c r="B3326">
+        <v>489</v>
+      </c>
+      <c r="C3326" s="2">
+        <v>44833</v>
+      </c>
+    </row>
+    <row r="3327" spans="1:3">
+      <c r="A3327" s="1">
+        <v>3325</v>
+      </c>
+      <c r="B3327">
+        <v>483</v>
+      </c>
+      <c r="C3327" s="2">
+        <v>44834</v>
+      </c>
+    </row>
+    <row r="3328" spans="1:3">
+      <c r="A3328" s="1">
+        <v>3326</v>
+      </c>
+      <c r="B3328">
+        <v>476</v>
+      </c>
+      <c r="C3328" s="2">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="3329" spans="1:3">
+      <c r="A3329" s="1">
+        <v>3327</v>
+      </c>
+      <c r="B3329">
+        <v>451</v>
+      </c>
+      <c r="C3329" s="2">
+        <v>44838</v>
+      </c>
+    </row>
+    <row r="3330" spans="1:3">
+      <c r="A3330" s="1">
+        <v>3328</v>
+      </c>
+      <c r="B3330">
+        <v>456</v>
+      </c>
+      <c r="C3330" s="2">
+        <v>44839</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig_mexico.xlsx
+++ b/mercados/embig_mexico.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3330"/>
+  <dimension ref="A1:C3339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -37005,6 +37005,102 @@
         <v>44839</v>
       </c>
     </row>
+    <row r="3331" spans="1:3">
+      <c r="A3331" s="1">
+        <v>3329</v>
+      </c>
+      <c r="C3331" s="2">
+        <v>44840</v>
+      </c>
+    </row>
+    <row r="3332" spans="1:3">
+      <c r="A3332" s="1">
+        <v>3330</v>
+      </c>
+      <c r="B3332">
+        <v>453</v>
+      </c>
+      <c r="C3332" s="2">
+        <v>44841</v>
+      </c>
+    </row>
+    <row r="3333" spans="1:3">
+      <c r="A3333" s="1">
+        <v>3331</v>
+      </c>
+      <c r="B3333">
+        <v>453</v>
+      </c>
+      <c r="C3333" s="2">
+        <v>44844</v>
+      </c>
+    </row>
+    <row r="3334" spans="1:3">
+      <c r="A3334" s="1">
+        <v>3332</v>
+      </c>
+      <c r="B3334">
+        <v>459</v>
+      </c>
+      <c r="C3334" s="2">
+        <v>44845</v>
+      </c>
+    </row>
+    <row r="3335" spans="1:3">
+      <c r="A3335" s="1">
+        <v>3333</v>
+      </c>
+      <c r="B3335">
+        <v>462</v>
+      </c>
+      <c r="C3335" s="2">
+        <v>44846</v>
+      </c>
+    </row>
+    <row r="3336" spans="1:3">
+      <c r="A3336" s="1">
+        <v>3334</v>
+      </c>
+      <c r="B3336">
+        <v>466</v>
+      </c>
+      <c r="C3336" s="2">
+        <v>44847</v>
+      </c>
+    </row>
+    <row r="3337" spans="1:3">
+      <c r="A3337" s="1">
+        <v>3335</v>
+      </c>
+      <c r="B3337">
+        <v>463</v>
+      </c>
+      <c r="C3337" s="2">
+        <v>44848</v>
+      </c>
+    </row>
+    <row r="3338" spans="1:3">
+      <c r="A3338" s="1">
+        <v>3336</v>
+      </c>
+      <c r="B3338">
+        <v>454</v>
+      </c>
+      <c r="C3338" s="2">
+        <v>44851</v>
+      </c>
+    </row>
+    <row r="3339" spans="1:3">
+      <c r="A3339" s="1">
+        <v>3337</v>
+      </c>
+      <c r="B3339">
+        <v>446</v>
+      </c>
+      <c r="C3339" s="2">
+        <v>44852</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig_mexico.xlsx
+++ b/mercados/embig_mexico.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3339"/>
+  <dimension ref="A1:C3344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -37101,6 +37101,61 @@
         <v>44852</v>
       </c>
     </row>
+    <row r="3340" spans="1:3">
+      <c r="A3340" s="1">
+        <v>3338</v>
+      </c>
+      <c r="B3340">
+        <v>449</v>
+      </c>
+      <c r="C3340" s="2">
+        <v>44853</v>
+      </c>
+    </row>
+    <row r="3341" spans="1:3">
+      <c r="A3341" s="1">
+        <v>3339</v>
+      </c>
+      <c r="B3341">
+        <v>449</v>
+      </c>
+      <c r="C3341" s="2">
+        <v>44854</v>
+      </c>
+    </row>
+    <row r="3342" spans="1:3">
+      <c r="A3342" s="1">
+        <v>3340</v>
+      </c>
+      <c r="B3342">
+        <v>448</v>
+      </c>
+      <c r="C3342" s="2">
+        <v>44855</v>
+      </c>
+    </row>
+    <row r="3343" spans="1:3">
+      <c r="A3343" s="1">
+        <v>3341</v>
+      </c>
+      <c r="B3343">
+        <v>433</v>
+      </c>
+      <c r="C3343" s="2">
+        <v>44858</v>
+      </c>
+    </row>
+    <row r="3344" spans="1:3">
+      <c r="A3344" s="1">
+        <v>3342</v>
+      </c>
+      <c r="B3344">
+        <v>426</v>
+      </c>
+      <c r="C3344" s="2">
+        <v>44859</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig_mexico.xlsx
+++ b/mercados/embig_mexico.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3344"/>
+  <dimension ref="A1:C3350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -37156,6 +37156,69 @@
         <v>44859</v>
       </c>
     </row>
+    <row r="3345" spans="1:3">
+      <c r="A3345" s="1">
+        <v>3343</v>
+      </c>
+      <c r="C3345" s="2">
+        <v>44860</v>
+      </c>
+    </row>
+    <row r="3346" spans="1:3">
+      <c r="A3346" s="1">
+        <v>3344</v>
+      </c>
+      <c r="B3346">
+        <v>433</v>
+      </c>
+      <c r="C3346" s="2">
+        <v>44861</v>
+      </c>
+    </row>
+    <row r="3347" spans="1:3">
+      <c r="A3347" s="1">
+        <v>3345</v>
+      </c>
+      <c r="B3347">
+        <v>421</v>
+      </c>
+      <c r="C3347" s="2">
+        <v>44862</v>
+      </c>
+    </row>
+    <row r="3348" spans="1:3">
+      <c r="A3348" s="1">
+        <v>3346</v>
+      </c>
+      <c r="B3348">
+        <v>428</v>
+      </c>
+      <c r="C3348" s="2">
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="3349" spans="1:3">
+      <c r="A3349" s="1">
+        <v>3347</v>
+      </c>
+      <c r="B3349">
+        <v>420</v>
+      </c>
+      <c r="C3349" s="2">
+        <v>44866</v>
+      </c>
+    </row>
+    <row r="3350" spans="1:3">
+      <c r="A3350" s="1">
+        <v>3348</v>
+      </c>
+      <c r="B3350">
+        <v>419</v>
+      </c>
+      <c r="C3350" s="2">
+        <v>44867</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig_mexico.xlsx
+++ b/mercados/embig_mexico.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3350"/>
+  <dimension ref="A1:C3355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -37219,6 +37219,61 @@
         <v>44867</v>
       </c>
     </row>
+    <row r="3351" spans="1:3">
+      <c r="A3351" s="1">
+        <v>3349</v>
+      </c>
+      <c r="B3351">
+        <v>420</v>
+      </c>
+      <c r="C3351" s="2">
+        <v>44868</v>
+      </c>
+    </row>
+    <row r="3352" spans="1:3">
+      <c r="A3352" s="1">
+        <v>3350</v>
+      </c>
+      <c r="B3352">
+        <v>411</v>
+      </c>
+      <c r="C3352" s="2">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="3353" spans="1:3">
+      <c r="A3353" s="1">
+        <v>3351</v>
+      </c>
+      <c r="B3353">
+        <v>392</v>
+      </c>
+      <c r="C3353" s="2">
+        <v>44872</v>
+      </c>
+    </row>
+    <row r="3354" spans="1:3">
+      <c r="A3354" s="1">
+        <v>3352</v>
+      </c>
+      <c r="B3354">
+        <v>399</v>
+      </c>
+      <c r="C3354" s="2">
+        <v>44873</v>
+      </c>
+    </row>
+    <row r="3355" spans="1:3">
+      <c r="A3355" s="1">
+        <v>3353</v>
+      </c>
+      <c r="B3355">
+        <v>413</v>
+      </c>
+      <c r="C3355" s="2">
+        <v>44874</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig_mexico.xlsx
+++ b/mercados/embig_mexico.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3355"/>
+  <dimension ref="A1:C3360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -37274,6 +37274,61 @@
         <v>44874</v>
       </c>
     </row>
+    <row r="3356" spans="1:3">
+      <c r="A3356" s="1">
+        <v>3354</v>
+      </c>
+      <c r="B3356">
+        <v>398</v>
+      </c>
+      <c r="C3356" s="2">
+        <v>44875</v>
+      </c>
+    </row>
+    <row r="3357" spans="1:3">
+      <c r="A3357" s="1">
+        <v>3355</v>
+      </c>
+      <c r="B3357">
+        <v>398</v>
+      </c>
+      <c r="C3357" s="2">
+        <v>44876</v>
+      </c>
+    </row>
+    <row r="3358" spans="1:3">
+      <c r="A3358" s="1">
+        <v>3356</v>
+      </c>
+      <c r="B3358">
+        <v>389</v>
+      </c>
+      <c r="C3358" s="2">
+        <v>44879</v>
+      </c>
+    </row>
+    <row r="3359" spans="1:3">
+      <c r="A3359" s="1">
+        <v>3357</v>
+      </c>
+      <c r="B3359">
+        <v>386</v>
+      </c>
+      <c r="C3359" s="2">
+        <v>44880</v>
+      </c>
+    </row>
+    <row r="3360" spans="1:3">
+      <c r="A3360" s="1">
+        <v>3358</v>
+      </c>
+      <c r="B3360">
+        <v>391</v>
+      </c>
+      <c r="C3360" s="2">
+        <v>44881</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig_mexico.xlsx
+++ b/mercados/embig_mexico.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3360"/>
+  <dimension ref="A1:C3365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -37329,6 +37329,61 @@
         <v>44881</v>
       </c>
     </row>
+    <row r="3361" spans="1:3">
+      <c r="A3361" s="1">
+        <v>3359</v>
+      </c>
+      <c r="B3361">
+        <v>393</v>
+      </c>
+      <c r="C3361" s="2">
+        <v>44882</v>
+      </c>
+    </row>
+    <row r="3362" spans="1:3">
+      <c r="A3362" s="1">
+        <v>3360</v>
+      </c>
+      <c r="B3362">
+        <v>389</v>
+      </c>
+      <c r="C3362" s="2">
+        <v>44883</v>
+      </c>
+    </row>
+    <row r="3363" spans="1:3">
+      <c r="A3363" s="1">
+        <v>3361</v>
+      </c>
+      <c r="B3363">
+        <v>389</v>
+      </c>
+      <c r="C3363" s="2">
+        <v>44886</v>
+      </c>
+    </row>
+    <row r="3364" spans="1:3">
+      <c r="A3364" s="1">
+        <v>3362</v>
+      </c>
+      <c r="B3364">
+        <v>394</v>
+      </c>
+      <c r="C3364" s="2">
+        <v>44887</v>
+      </c>
+    </row>
+    <row r="3365" spans="1:3">
+      <c r="A3365" s="1">
+        <v>3363</v>
+      </c>
+      <c r="B3365">
+        <v>400</v>
+      </c>
+      <c r="C3365" s="2">
+        <v>44888</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig_mexico.xlsx
+++ b/mercados/embig_mexico.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3365"/>
+  <dimension ref="A1:C3371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -37384,6 +37384,72 @@
         <v>44888</v>
       </c>
     </row>
+    <row r="3366" spans="1:3">
+      <c r="A3366" s="1">
+        <v>3364</v>
+      </c>
+      <c r="B3366">
+        <v>400</v>
+      </c>
+      <c r="C3366" s="2">
+        <v>44889</v>
+      </c>
+    </row>
+    <row r="3367" spans="1:3">
+      <c r="A3367" s="1">
+        <v>3365</v>
+      </c>
+      <c r="B3367">
+        <v>401</v>
+      </c>
+      <c r="C3367" s="2">
+        <v>44890</v>
+      </c>
+    </row>
+    <row r="3368" spans="1:3">
+      <c r="A3368" s="1">
+        <v>3366</v>
+      </c>
+      <c r="B3368">
+        <v>402</v>
+      </c>
+      <c r="C3368" s="2">
+        <v>44893</v>
+      </c>
+    </row>
+    <row r="3369" spans="1:3">
+      <c r="A3369" s="1">
+        <v>3367</v>
+      </c>
+      <c r="B3369">
+        <v>392</v>
+      </c>
+      <c r="C3369" s="2">
+        <v>44894</v>
+      </c>
+    </row>
+    <row r="3370" spans="1:3">
+      <c r="A3370" s="1">
+        <v>3368</v>
+      </c>
+      <c r="B3370">
+        <v>392</v>
+      </c>
+      <c r="C3370" s="2">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="3371" spans="1:3">
+      <c r="A3371" s="1">
+        <v>3369</v>
+      </c>
+      <c r="B3371">
+        <v>392</v>
+      </c>
+      <c r="C3371" s="2">
+        <v>44896</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig_mexico.xlsx
+++ b/mercados/embig_mexico.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3371"/>
+  <dimension ref="A1:C3374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -37444,10 +37444,43 @@
         <v>3369</v>
       </c>
       <c r="B3371">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C3371" s="2">
         <v>44896</v>
+      </c>
+    </row>
+    <row r="3372" spans="1:3">
+      <c r="A3372" s="1">
+        <v>3370</v>
+      </c>
+      <c r="B3372">
+        <v>384</v>
+      </c>
+      <c r="C3372" s="2">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="3373" spans="1:3">
+      <c r="A3373" s="1">
+        <v>3371</v>
+      </c>
+      <c r="B3373">
+        <v>388</v>
+      </c>
+      <c r="C3373" s="2">
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="3374" spans="1:3">
+      <c r="A3374" s="1">
+        <v>3372</v>
+      </c>
+      <c r="B3374">
+        <v>404</v>
+      </c>
+      <c r="C3374" s="2">
+        <v>44901</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/embig_mexico.xlsx
+++ b/mercados/embig_mexico.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3374"/>
+  <dimension ref="A1:C3380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -37483,6 +37483,72 @@
         <v>44901</v>
       </c>
     </row>
+    <row r="3375" spans="1:3">
+      <c r="A3375" s="1">
+        <v>3373</v>
+      </c>
+      <c r="B3375">
+        <v>403</v>
+      </c>
+      <c r="C3375" s="2">
+        <v>44902</v>
+      </c>
+    </row>
+    <row r="3376" spans="1:3">
+      <c r="A3376" s="1">
+        <v>3374</v>
+      </c>
+      <c r="B3376">
+        <v>392</v>
+      </c>
+      <c r="C3376" s="2">
+        <v>44903</v>
+      </c>
+    </row>
+    <row r="3377" spans="1:3">
+      <c r="A3377" s="1">
+        <v>3375</v>
+      </c>
+      <c r="B3377">
+        <v>382</v>
+      </c>
+      <c r="C3377" s="2">
+        <v>44904</v>
+      </c>
+    </row>
+    <row r="3378" spans="1:3">
+      <c r="A3378" s="1">
+        <v>3376</v>
+      </c>
+      <c r="B3378">
+        <v>386</v>
+      </c>
+      <c r="C3378" s="2">
+        <v>44907</v>
+      </c>
+    </row>
+    <row r="3379" spans="1:3">
+      <c r="A3379" s="1">
+        <v>3377</v>
+      </c>
+      <c r="B3379">
+        <v>381</v>
+      </c>
+      <c r="C3379" s="2">
+        <v>44908</v>
+      </c>
+    </row>
+    <row r="3380" spans="1:3">
+      <c r="A3380" s="1">
+        <v>3378</v>
+      </c>
+      <c r="B3380">
+        <v>384</v>
+      </c>
+      <c r="C3380" s="2">
+        <v>44909</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig_mexico.xlsx
+++ b/mercados/embig_mexico.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3380"/>
+  <dimension ref="A1:C3385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -37549,6 +37549,61 @@
         <v>44909</v>
       </c>
     </row>
+    <row r="3381" spans="1:3">
+      <c r="A3381" s="1">
+        <v>3379</v>
+      </c>
+      <c r="B3381">
+        <v>389</v>
+      </c>
+      <c r="C3381" s="2">
+        <v>44910</v>
+      </c>
+    </row>
+    <row r="3382" spans="1:3">
+      <c r="A3382" s="1">
+        <v>3380</v>
+      </c>
+      <c r="B3382">
+        <v>396</v>
+      </c>
+      <c r="C3382" s="2">
+        <v>44911</v>
+      </c>
+    </row>
+    <row r="3383" spans="1:3">
+      <c r="A3383" s="1">
+        <v>3381</v>
+      </c>
+      <c r="B3383">
+        <v>398</v>
+      </c>
+      <c r="C3383" s="2">
+        <v>44914</v>
+      </c>
+    </row>
+    <row r="3384" spans="1:3">
+      <c r="A3384" s="1">
+        <v>3382</v>
+      </c>
+      <c r="B3384">
+        <v>398</v>
+      </c>
+      <c r="C3384" s="2">
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="3385" spans="1:3">
+      <c r="A3385" s="1">
+        <v>3383</v>
+      </c>
+      <c r="B3385">
+        <v>389</v>
+      </c>
+      <c r="C3385" s="2">
+        <v>44916</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig_mexico.xlsx
+++ b/mercados/embig_mexico.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3385"/>
+  <dimension ref="A1:C3459"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17614,6 +17614,9 @@
       <c r="A1567" s="1">
         <v>1565</v>
       </c>
+      <c r="B1567">
+        <v>315</v>
+      </c>
       <c r="C1567" s="2">
         <v>42370</v>
       </c>
@@ -29865,6 +29868,9 @@
       <c r="A2681" s="1">
         <v>2679</v>
       </c>
+      <c r="B2681">
+        <v>619</v>
+      </c>
       <c r="C2681" s="2">
         <v>43930</v>
       </c>
@@ -30038,6 +30044,9 @@
       <c r="A2697" s="1">
         <v>2695</v>
       </c>
+      <c r="B2697">
+        <v>659</v>
+      </c>
       <c r="C2697" s="2">
         <v>43952</v>
       </c>
@@ -37009,6 +37018,9 @@
       <c r="A3331" s="1">
         <v>3329</v>
       </c>
+      <c r="B3331">
+        <v>450</v>
+      </c>
       <c r="C3331" s="2">
         <v>44840</v>
       </c>
@@ -37160,6 +37172,9 @@
       <c r="A3345" s="1">
         <v>3343</v>
       </c>
+      <c r="B3345">
+        <v>427</v>
+      </c>
       <c r="C3345" s="2">
         <v>44860</v>
       </c>
@@ -37602,6 +37617,820 @@
       </c>
       <c r="C3385" s="2">
         <v>44916</v>
+      </c>
+    </row>
+    <row r="3386" spans="1:3">
+      <c r="A3386" s="1">
+        <v>3384</v>
+      </c>
+      <c r="B3386">
+        <v>388</v>
+      </c>
+      <c r="C3386" s="2">
+        <v>44917</v>
+      </c>
+    </row>
+    <row r="3387" spans="1:3">
+      <c r="A3387" s="1">
+        <v>3385</v>
+      </c>
+      <c r="B3387">
+        <v>386</v>
+      </c>
+      <c r="C3387" s="2">
+        <v>44918</v>
+      </c>
+    </row>
+    <row r="3388" spans="1:3">
+      <c r="A3388" s="1">
+        <v>3386</v>
+      </c>
+      <c r="B3388">
+        <v>386</v>
+      </c>
+      <c r="C3388" s="2">
+        <v>44921</v>
+      </c>
+    </row>
+    <row r="3389" spans="1:3">
+      <c r="A3389" s="1">
+        <v>3387</v>
+      </c>
+      <c r="B3389">
+        <v>383</v>
+      </c>
+      <c r="C3389" s="2">
+        <v>44922</v>
+      </c>
+    </row>
+    <row r="3390" spans="1:3">
+      <c r="A3390" s="1">
+        <v>3388</v>
+      </c>
+      <c r="B3390">
+        <v>385</v>
+      </c>
+      <c r="C3390" s="2">
+        <v>44923</v>
+      </c>
+    </row>
+    <row r="3391" spans="1:3">
+      <c r="A3391" s="1">
+        <v>3389</v>
+      </c>
+      <c r="B3391">
+        <v>389</v>
+      </c>
+      <c r="C3391" s="2">
+        <v>44924</v>
+      </c>
+    </row>
+    <row r="3392" spans="1:3">
+      <c r="A3392" s="1">
+        <v>3390</v>
+      </c>
+      <c r="B3392">
+        <v>386</v>
+      </c>
+      <c r="C3392" s="2">
+        <v>44925</v>
+      </c>
+    </row>
+    <row r="3393" spans="1:3">
+      <c r="A3393" s="1">
+        <v>3391</v>
+      </c>
+      <c r="B3393">
+        <v>386</v>
+      </c>
+      <c r="C3393" s="2">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="3394" spans="1:3">
+      <c r="A3394" s="1">
+        <v>3392</v>
+      </c>
+      <c r="B3394">
+        <v>390</v>
+      </c>
+      <c r="C3394" s="2">
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="3395" spans="1:3">
+      <c r="A3395" s="1">
+        <v>3393</v>
+      </c>
+      <c r="B3395">
+        <v>391</v>
+      </c>
+      <c r="C3395" s="2">
+        <v>44930</v>
+      </c>
+    </row>
+    <row r="3396" spans="1:3">
+      <c r="A3396" s="1">
+        <v>3394</v>
+      </c>
+      <c r="B3396">
+        <v>398</v>
+      </c>
+      <c r="C3396" s="2">
+        <v>44931</v>
+      </c>
+    </row>
+    <row r="3397" spans="1:3">
+      <c r="A3397" s="1">
+        <v>3395</v>
+      </c>
+      <c r="B3397">
+        <v>392</v>
+      </c>
+      <c r="C3397" s="2">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="3398" spans="1:3">
+      <c r="A3398" s="1">
+        <v>3396</v>
+      </c>
+      <c r="B3398">
+        <v>388</v>
+      </c>
+      <c r="C3398" s="2">
+        <v>44935</v>
+      </c>
+    </row>
+    <row r="3399" spans="1:3">
+      <c r="A3399" s="1">
+        <v>3397</v>
+      </c>
+      <c r="B3399">
+        <v>387</v>
+      </c>
+      <c r="C3399" s="2">
+        <v>44936</v>
+      </c>
+    </row>
+    <row r="3400" spans="1:3">
+      <c r="A3400" s="1">
+        <v>3398</v>
+      </c>
+      <c r="B3400">
+        <v>383</v>
+      </c>
+      <c r="C3400" s="2">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="3401" spans="1:3">
+      <c r="A3401" s="1">
+        <v>3399</v>
+      </c>
+      <c r="B3401">
+        <v>373</v>
+      </c>
+      <c r="C3401" s="2">
+        <v>44938</v>
+      </c>
+    </row>
+    <row r="3402" spans="1:3">
+      <c r="A3402" s="1">
+        <v>3400</v>
+      </c>
+      <c r="B3402">
+        <v>368</v>
+      </c>
+      <c r="C3402" s="2">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="3403" spans="1:3">
+      <c r="A3403" s="1">
+        <v>3401</v>
+      </c>
+      <c r="B3403">
+        <v>368</v>
+      </c>
+      <c r="C3403" s="2">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="3404" spans="1:3">
+      <c r="A3404" s="1">
+        <v>3402</v>
+      </c>
+      <c r="B3404">
+        <v>366</v>
+      </c>
+      <c r="C3404" s="2">
+        <v>44943</v>
+      </c>
+    </row>
+    <row r="3405" spans="1:3">
+      <c r="A3405" s="1">
+        <v>3403</v>
+      </c>
+      <c r="B3405">
+        <v>363</v>
+      </c>
+      <c r="C3405" s="2">
+        <v>44944</v>
+      </c>
+    </row>
+    <row r="3406" spans="1:3">
+      <c r="A3406" s="1">
+        <v>3404</v>
+      </c>
+      <c r="B3406">
+        <v>363</v>
+      </c>
+      <c r="C3406" s="2">
+        <v>44945</v>
+      </c>
+    </row>
+    <row r="3407" spans="1:3">
+      <c r="A3407" s="1">
+        <v>3405</v>
+      </c>
+      <c r="B3407">
+        <v>358</v>
+      </c>
+      <c r="C3407" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="3408" spans="1:3">
+      <c r="A3408" s="1">
+        <v>3406</v>
+      </c>
+      <c r="B3408">
+        <v>354</v>
+      </c>
+      <c r="C3408" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="3409" spans="1:3">
+      <c r="A3409" s="1">
+        <v>3407</v>
+      </c>
+      <c r="B3409">
+        <v>361</v>
+      </c>
+      <c r="C3409" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="3410" spans="1:3">
+      <c r="A3410" s="1">
+        <v>3408</v>
+      </c>
+      <c r="B3410">
+        <v>366</v>
+      </c>
+      <c r="C3410" s="2">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="3411" spans="1:3">
+      <c r="A3411" s="1">
+        <v>3409</v>
+      </c>
+      <c r="B3411">
+        <v>361</v>
+      </c>
+      <c r="C3411" s="2">
+        <v>44952</v>
+      </c>
+    </row>
+    <row r="3412" spans="1:3">
+      <c r="A3412" s="1">
+        <v>3410</v>
+      </c>
+      <c r="B3412">
+        <v>354</v>
+      </c>
+      <c r="C3412" s="2">
+        <v>44953</v>
+      </c>
+    </row>
+    <row r="3413" spans="1:3">
+      <c r="A3413" s="1">
+        <v>3411</v>
+      </c>
+      <c r="B3413">
+        <v>364</v>
+      </c>
+      <c r="C3413" s="2">
+        <v>44956</v>
+      </c>
+    </row>
+    <row r="3414" spans="1:3">
+      <c r="A3414" s="1">
+        <v>3412</v>
+      </c>
+      <c r="B3414">
+        <v>357</v>
+      </c>
+      <c r="C3414" s="2">
+        <v>44957</v>
+      </c>
+    </row>
+    <row r="3415" spans="1:3">
+      <c r="A3415" s="1">
+        <v>3413</v>
+      </c>
+      <c r="B3415">
+        <v>358</v>
+      </c>
+      <c r="C3415" s="2">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="3416" spans="1:3">
+      <c r="A3416" s="1">
+        <v>3414</v>
+      </c>
+      <c r="B3416">
+        <v>343</v>
+      </c>
+      <c r="C3416" s="2">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="3417" spans="1:3">
+      <c r="A3417" s="1">
+        <v>3415</v>
+      </c>
+      <c r="B3417">
+        <v>342</v>
+      </c>
+      <c r="C3417" s="2">
+        <v>44960</v>
+      </c>
+    </row>
+    <row r="3418" spans="1:3">
+      <c r="A3418" s="1">
+        <v>3416</v>
+      </c>
+      <c r="B3418">
+        <v>348</v>
+      </c>
+      <c r="C3418" s="2">
+        <v>44963</v>
+      </c>
+    </row>
+    <row r="3419" spans="1:3">
+      <c r="A3419" s="1">
+        <v>3417</v>
+      </c>
+      <c r="B3419">
+        <v>352</v>
+      </c>
+      <c r="C3419" s="2">
+        <v>44964</v>
+      </c>
+    </row>
+    <row r="3420" spans="1:3">
+      <c r="A3420" s="1">
+        <v>3418</v>
+      </c>
+      <c r="B3420">
+        <v>360</v>
+      </c>
+      <c r="C3420" s="2">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="3421" spans="1:3">
+      <c r="A3421" s="1">
+        <v>3419</v>
+      </c>
+      <c r="B3421">
+        <v>359</v>
+      </c>
+      <c r="C3421" s="2">
+        <v>44966</v>
+      </c>
+    </row>
+    <row r="3422" spans="1:3">
+      <c r="A3422" s="1">
+        <v>3420</v>
+      </c>
+      <c r="B3422">
+        <v>364</v>
+      </c>
+      <c r="C3422" s="2">
+        <v>44967</v>
+      </c>
+    </row>
+    <row r="3423" spans="1:3">
+      <c r="A3423" s="1">
+        <v>3421</v>
+      </c>
+      <c r="B3423">
+        <v>363</v>
+      </c>
+      <c r="C3423" s="2">
+        <v>44970</v>
+      </c>
+    </row>
+    <row r="3424" spans="1:3">
+      <c r="A3424" s="1">
+        <v>3422</v>
+      </c>
+      <c r="B3424">
+        <v>363</v>
+      </c>
+      <c r="C3424" s="2">
+        <v>44971</v>
+      </c>
+    </row>
+    <row r="3425" spans="1:3">
+      <c r="A3425" s="1">
+        <v>3423</v>
+      </c>
+      <c r="B3425">
+        <v>365</v>
+      </c>
+      <c r="C3425" s="2">
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="3426" spans="1:3">
+      <c r="A3426" s="1">
+        <v>3424</v>
+      </c>
+      <c r="B3426">
+        <v>359</v>
+      </c>
+      <c r="C3426" s="2">
+        <v>44973</v>
+      </c>
+    </row>
+    <row r="3427" spans="1:3">
+      <c r="A3427" s="1">
+        <v>3425</v>
+      </c>
+      <c r="B3427">
+        <v>364</v>
+      </c>
+      <c r="C3427" s="2">
+        <v>44974</v>
+      </c>
+    </row>
+    <row r="3428" spans="1:3">
+      <c r="A3428" s="1">
+        <v>3426</v>
+      </c>
+      <c r="B3428">
+        <v>364</v>
+      </c>
+      <c r="C3428" s="2">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="3429" spans="1:3">
+      <c r="A3429" s="1">
+        <v>3427</v>
+      </c>
+      <c r="B3429">
+        <v>364</v>
+      </c>
+      <c r="C3429" s="2">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="3430" spans="1:3">
+      <c r="A3430" s="1">
+        <v>3428</v>
+      </c>
+      <c r="B3430">
+        <v>366</v>
+      </c>
+      <c r="C3430" s="2">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="3431" spans="1:3">
+      <c r="A3431" s="1">
+        <v>3429</v>
+      </c>
+      <c r="B3431">
+        <v>357</v>
+      </c>
+      <c r="C3431" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="3432" spans="1:3">
+      <c r="A3432" s="1">
+        <v>3430</v>
+      </c>
+      <c r="B3432">
+        <v>355</v>
+      </c>
+      <c r="C3432" s="2">
+        <v>44981</v>
+      </c>
+    </row>
+    <row r="3433" spans="1:3">
+      <c r="A3433" s="1">
+        <v>3431</v>
+      </c>
+      <c r="B3433">
+        <v>357</v>
+      </c>
+      <c r="C3433" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="3434" spans="1:3">
+      <c r="A3434" s="1">
+        <v>3432</v>
+      </c>
+      <c r="B3434">
+        <v>368</v>
+      </c>
+      <c r="C3434" s="2">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="3435" spans="1:3">
+      <c r="A3435" s="1">
+        <v>3433</v>
+      </c>
+      <c r="B3435">
+        <v>370</v>
+      </c>
+      <c r="C3435" s="2">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="3436" spans="1:3">
+      <c r="A3436" s="1">
+        <v>3434</v>
+      </c>
+      <c r="B3436">
+        <v>373</v>
+      </c>
+      <c r="C3436" s="2">
+        <v>44987</v>
+      </c>
+    </row>
+    <row r="3437" spans="1:3">
+      <c r="A3437" s="1">
+        <v>3435</v>
+      </c>
+      <c r="B3437">
+        <v>371</v>
+      </c>
+      <c r="C3437" s="2">
+        <v>44988</v>
+      </c>
+    </row>
+    <row r="3438" spans="1:3">
+      <c r="A3438" s="1">
+        <v>3436</v>
+      </c>
+      <c r="B3438">
+        <v>365</v>
+      </c>
+      <c r="C3438" s="2">
+        <v>44991</v>
+      </c>
+    </row>
+    <row r="3439" spans="1:3">
+      <c r="A3439" s="1">
+        <v>3437</v>
+      </c>
+      <c r="B3439">
+        <v>371</v>
+      </c>
+      <c r="C3439" s="2">
+        <v>44992</v>
+      </c>
+    </row>
+    <row r="3440" spans="1:3">
+      <c r="A3440" s="1">
+        <v>3438</v>
+      </c>
+      <c r="B3440">
+        <v>377</v>
+      </c>
+      <c r="C3440" s="2">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="3441" spans="1:3">
+      <c r="A3441" s="1">
+        <v>3439</v>
+      </c>
+      <c r="B3441">
+        <v>386</v>
+      </c>
+      <c r="C3441" s="2">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="3442" spans="1:3">
+      <c r="A3442" s="1">
+        <v>3440</v>
+      </c>
+      <c r="B3442">
+        <v>396</v>
+      </c>
+      <c r="C3442" s="2">
+        <v>44995</v>
+      </c>
+    </row>
+    <row r="3443" spans="1:3">
+      <c r="A3443" s="1">
+        <v>3441</v>
+      </c>
+      <c r="B3443">
+        <v>408</v>
+      </c>
+      <c r="C3443" s="2">
+        <v>44998</v>
+      </c>
+    </row>
+    <row r="3444" spans="1:3">
+      <c r="A3444" s="1">
+        <v>3442</v>
+      </c>
+      <c r="B3444">
+        <v>399</v>
+      </c>
+      <c r="C3444" s="2">
+        <v>44999</v>
+      </c>
+    </row>
+    <row r="3445" spans="1:3">
+      <c r="A3445" s="1">
+        <v>3443</v>
+      </c>
+      <c r="B3445">
+        <v>424</v>
+      </c>
+      <c r="C3445" s="2">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="3446" spans="1:3">
+      <c r="A3446" s="1">
+        <v>3444</v>
+      </c>
+      <c r="B3446">
+        <v>416</v>
+      </c>
+      <c r="C3446" s="2">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="3447" spans="1:3">
+      <c r="A3447" s="1">
+        <v>3445</v>
+      </c>
+      <c r="B3447">
+        <v>430</v>
+      </c>
+      <c r="C3447" s="2">
+        <v>45002</v>
+      </c>
+    </row>
+    <row r="3448" spans="1:3">
+      <c r="A3448" s="1">
+        <v>3446</v>
+      </c>
+      <c r="B3448">
+        <v>430</v>
+      </c>
+      <c r="C3448" s="2">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="3449" spans="1:3">
+      <c r="A3449" s="1">
+        <v>3447</v>
+      </c>
+      <c r="B3449">
+        <v>416</v>
+      </c>
+      <c r="C3449" s="2">
+        <v>45006</v>
+      </c>
+    </row>
+    <row r="3450" spans="1:3">
+      <c r="A3450" s="1">
+        <v>3448</v>
+      </c>
+      <c r="B3450">
+        <v>417</v>
+      </c>
+      <c r="C3450" s="2">
+        <v>45007</v>
+      </c>
+    </row>
+    <row r="3451" spans="1:3">
+      <c r="A3451" s="1">
+        <v>3449</v>
+      </c>
+      <c r="B3451">
+        <v>417</v>
+      </c>
+      <c r="C3451" s="2">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="3452" spans="1:3">
+      <c r="A3452" s="1">
+        <v>3450</v>
+      </c>
+      <c r="B3452">
+        <v>422</v>
+      </c>
+      <c r="C3452" s="2">
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="3453" spans="1:3">
+      <c r="A3453" s="1">
+        <v>3451</v>
+      </c>
+      <c r="B3453">
+        <v>413</v>
+      </c>
+      <c r="C3453" s="2">
+        <v>45012</v>
+      </c>
+    </row>
+    <row r="3454" spans="1:3">
+      <c r="A3454" s="1">
+        <v>3452</v>
+      </c>
+      <c r="B3454">
+        <v>415</v>
+      </c>
+      <c r="C3454" s="2">
+        <v>45013</v>
+      </c>
+    </row>
+    <row r="3455" spans="1:3">
+      <c r="A3455" s="1">
+        <v>3453</v>
+      </c>
+      <c r="B3455">
+        <v>408</v>
+      </c>
+      <c r="C3455" s="2">
+        <v>45014</v>
+      </c>
+    </row>
+    <row r="3456" spans="1:3">
+      <c r="A3456" s="1">
+        <v>3454</v>
+      </c>
+      <c r="B3456">
+        <v>399</v>
+      </c>
+      <c r="C3456" s="2">
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="3457" spans="1:3">
+      <c r="A3457" s="1">
+        <v>3455</v>
+      </c>
+      <c r="B3457">
+        <v>393</v>
+      </c>
+      <c r="C3457" s="2">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="3458" spans="1:3">
+      <c r="A3458" s="1">
+        <v>3456</v>
+      </c>
+      <c r="B3458">
+        <v>389</v>
+      </c>
+      <c r="C3458" s="2">
+        <v>45019</v>
+      </c>
+    </row>
+    <row r="3459" spans="1:3">
+      <c r="A3459" s="1">
+        <v>3457</v>
+      </c>
+      <c r="B3459">
+        <v>402</v>
+      </c>
+      <c r="C3459" s="2">
+        <v>45020</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/embig_mexico.xlsx
+++ b/mercados/embig_mexico.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3459"/>
+  <dimension ref="A1:C3530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38433,6 +38433,787 @@
         <v>45020</v>
       </c>
     </row>
+    <row r="3460" spans="1:3">
+      <c r="A3460" s="1">
+        <v>3458</v>
+      </c>
+      <c r="B3460">
+        <v>408</v>
+      </c>
+      <c r="C3460" s="2">
+        <v>45021</v>
+      </c>
+    </row>
+    <row r="3461" spans="1:3">
+      <c r="A3461" s="1">
+        <v>3459</v>
+      </c>
+      <c r="B3461">
+        <v>409</v>
+      </c>
+      <c r="C3461" s="2">
+        <v>45022</v>
+      </c>
+    </row>
+    <row r="3462" spans="1:3">
+      <c r="A3462" s="1">
+        <v>3460</v>
+      </c>
+      <c r="B3462">
+        <v>400</v>
+      </c>
+      <c r="C3462" s="2">
+        <v>45023</v>
+      </c>
+    </row>
+    <row r="3463" spans="1:3">
+      <c r="A3463" s="1">
+        <v>3461</v>
+      </c>
+      <c r="B3463">
+        <v>401</v>
+      </c>
+      <c r="C3463" s="2">
+        <v>45026</v>
+      </c>
+    </row>
+    <row r="3464" spans="1:3">
+      <c r="A3464" s="1">
+        <v>3462</v>
+      </c>
+      <c r="B3464">
+        <v>400</v>
+      </c>
+      <c r="C3464" s="2">
+        <v>45027</v>
+      </c>
+    </row>
+    <row r="3465" spans="1:3">
+      <c r="A3465" s="1">
+        <v>3463</v>
+      </c>
+      <c r="B3465">
+        <v>399</v>
+      </c>
+      <c r="C3465" s="2">
+        <v>45028</v>
+      </c>
+    </row>
+    <row r="3466" spans="1:3">
+      <c r="A3466" s="1">
+        <v>3464</v>
+      </c>
+      <c r="B3466">
+        <v>397</v>
+      </c>
+      <c r="C3466" s="2">
+        <v>45029</v>
+      </c>
+    </row>
+    <row r="3467" spans="1:3">
+      <c r="A3467" s="1">
+        <v>3465</v>
+      </c>
+      <c r="B3467">
+        <v>390</v>
+      </c>
+      <c r="C3467" s="2">
+        <v>45030</v>
+      </c>
+    </row>
+    <row r="3468" spans="1:3">
+      <c r="A3468" s="1">
+        <v>3466</v>
+      </c>
+      <c r="B3468">
+        <v>391</v>
+      </c>
+      <c r="C3468" s="2">
+        <v>45033</v>
+      </c>
+    </row>
+    <row r="3469" spans="1:3">
+      <c r="A3469" s="1">
+        <v>3467</v>
+      </c>
+      <c r="B3469">
+        <v>390</v>
+      </c>
+      <c r="C3469" s="2">
+        <v>45034</v>
+      </c>
+    </row>
+    <row r="3470" spans="1:3">
+      <c r="A3470" s="1">
+        <v>3468</v>
+      </c>
+      <c r="B3470">
+        <v>394</v>
+      </c>
+      <c r="C3470" s="2">
+        <v>45035</v>
+      </c>
+    </row>
+    <row r="3471" spans="1:3">
+      <c r="A3471" s="1">
+        <v>3469</v>
+      </c>
+      <c r="B3471">
+        <v>398</v>
+      </c>
+      <c r="C3471" s="2">
+        <v>45036</v>
+      </c>
+    </row>
+    <row r="3472" spans="1:3">
+      <c r="A3472" s="1">
+        <v>3470</v>
+      </c>
+      <c r="B3472">
+        <v>393</v>
+      </c>
+      <c r="C3472" s="2">
+        <v>45037</v>
+      </c>
+    </row>
+    <row r="3473" spans="1:3">
+      <c r="A3473" s="1">
+        <v>3471</v>
+      </c>
+      <c r="B3473">
+        <v>394</v>
+      </c>
+      <c r="C3473" s="2">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="3474" spans="1:3">
+      <c r="A3474" s="1">
+        <v>3472</v>
+      </c>
+      <c r="B3474">
+        <v>399</v>
+      </c>
+      <c r="C3474" s="2">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="3475" spans="1:3">
+      <c r="A3475" s="1">
+        <v>3473</v>
+      </c>
+      <c r="B3475">
+        <v>401</v>
+      </c>
+      <c r="C3475" s="2">
+        <v>45042</v>
+      </c>
+    </row>
+    <row r="3476" spans="1:3">
+      <c r="A3476" s="1">
+        <v>3474</v>
+      </c>
+      <c r="B3476">
+        <v>401</v>
+      </c>
+      <c r="C3476" s="2">
+        <v>45043</v>
+      </c>
+    </row>
+    <row r="3477" spans="1:3">
+      <c r="A3477" s="1">
+        <v>3475</v>
+      </c>
+      <c r="B3477">
+        <v>396</v>
+      </c>
+      <c r="C3477" s="2">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="3478" spans="1:3">
+      <c r="A3478" s="1">
+        <v>3476</v>
+      </c>
+      <c r="B3478">
+        <v>392</v>
+      </c>
+      <c r="C3478" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="3479" spans="1:3">
+      <c r="A3479" s="1">
+        <v>3477</v>
+      </c>
+      <c r="B3479">
+        <v>401</v>
+      </c>
+      <c r="C3479" s="2">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="3480" spans="1:3">
+      <c r="A3480" s="1">
+        <v>3478</v>
+      </c>
+      <c r="B3480">
+        <v>407</v>
+      </c>
+      <c r="C3480" s="2">
+        <v>45049</v>
+      </c>
+    </row>
+    <row r="3481" spans="1:3">
+      <c r="A3481" s="1">
+        <v>3479</v>
+      </c>
+      <c r="B3481">
+        <v>411</v>
+      </c>
+      <c r="C3481" s="2">
+        <v>45050</v>
+      </c>
+    </row>
+    <row r="3482" spans="1:3">
+      <c r="A3482" s="1">
+        <v>3480</v>
+      </c>
+      <c r="B3482">
+        <v>411</v>
+      </c>
+      <c r="C3482" s="2">
+        <v>45051</v>
+      </c>
+    </row>
+    <row r="3483" spans="1:3">
+      <c r="A3483" s="1">
+        <v>3481</v>
+      </c>
+      <c r="B3483">
+        <v>409</v>
+      </c>
+      <c r="C3483" s="2">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="3484" spans="1:3">
+      <c r="A3484" s="1">
+        <v>3482</v>
+      </c>
+      <c r="B3484">
+        <v>410</v>
+      </c>
+      <c r="C3484" s="2">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="3485" spans="1:3">
+      <c r="A3485" s="1">
+        <v>3483</v>
+      </c>
+      <c r="B3485">
+        <v>414</v>
+      </c>
+      <c r="C3485" s="2">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="3486" spans="1:3">
+      <c r="A3486" s="1">
+        <v>3484</v>
+      </c>
+      <c r="B3486">
+        <v>415</v>
+      </c>
+      <c r="C3486" s="2">
+        <v>45057</v>
+      </c>
+    </row>
+    <row r="3487" spans="1:3">
+      <c r="A3487" s="1">
+        <v>3485</v>
+      </c>
+      <c r="B3487">
+        <v>414</v>
+      </c>
+      <c r="C3487" s="2">
+        <v>45058</v>
+      </c>
+    </row>
+    <row r="3488" spans="1:3">
+      <c r="A3488" s="1">
+        <v>3486</v>
+      </c>
+      <c r="B3488">
+        <v>418</v>
+      </c>
+      <c r="C3488" s="2">
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="3489" spans="1:3">
+      <c r="A3489" s="1">
+        <v>3487</v>
+      </c>
+      <c r="B3489">
+        <v>416</v>
+      </c>
+      <c r="C3489" s="2">
+        <v>45062</v>
+      </c>
+    </row>
+    <row r="3490" spans="1:3">
+      <c r="A3490" s="1">
+        <v>3488</v>
+      </c>
+      <c r="B3490">
+        <v>411</v>
+      </c>
+      <c r="C3490" s="2">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="3491" spans="1:3">
+      <c r="A3491" s="1">
+        <v>3489</v>
+      </c>
+      <c r="B3491">
+        <v>406</v>
+      </c>
+      <c r="C3491" s="2">
+        <v>45064</v>
+      </c>
+    </row>
+    <row r="3492" spans="1:3">
+      <c r="A3492" s="1">
+        <v>3490</v>
+      </c>
+      <c r="B3492">
+        <v>402</v>
+      </c>
+      <c r="C3492" s="2">
+        <v>45065</v>
+      </c>
+    </row>
+    <row r="3493" spans="1:3">
+      <c r="A3493" s="1">
+        <v>3491</v>
+      </c>
+      <c r="B3493">
+        <v>400</v>
+      </c>
+      <c r="C3493" s="2">
+        <v>45068</v>
+      </c>
+    </row>
+    <row r="3494" spans="1:3">
+      <c r="A3494" s="1">
+        <v>3492</v>
+      </c>
+      <c r="B3494">
+        <v>404</v>
+      </c>
+      <c r="C3494" s="2">
+        <v>45069</v>
+      </c>
+    </row>
+    <row r="3495" spans="1:3">
+      <c r="A3495" s="1">
+        <v>3493</v>
+      </c>
+      <c r="B3495">
+        <v>403</v>
+      </c>
+      <c r="C3495" s="2">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="3496" spans="1:3">
+      <c r="A3496" s="1">
+        <v>3494</v>
+      </c>
+      <c r="B3496">
+        <v>400</v>
+      </c>
+      <c r="C3496" s="2">
+        <v>45071</v>
+      </c>
+    </row>
+    <row r="3497" spans="1:3">
+      <c r="A3497" s="1">
+        <v>3495</v>
+      </c>
+      <c r="B3497">
+        <v>401</v>
+      </c>
+      <c r="C3497" s="2">
+        <v>45072</v>
+      </c>
+    </row>
+    <row r="3498" spans="1:3">
+      <c r="A3498" s="1">
+        <v>3496</v>
+      </c>
+      <c r="B3498">
+        <v>401</v>
+      </c>
+      <c r="C3498" s="2">
+        <v>45075</v>
+      </c>
+    </row>
+    <row r="3499" spans="1:3">
+      <c r="A3499" s="1">
+        <v>3497</v>
+      </c>
+      <c r="B3499">
+        <v>401</v>
+      </c>
+      <c r="C3499" s="2">
+        <v>45076</v>
+      </c>
+    </row>
+    <row r="3500" spans="1:3">
+      <c r="A3500" s="1">
+        <v>3498</v>
+      </c>
+      <c r="B3500">
+        <v>406</v>
+      </c>
+      <c r="C3500" s="2">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="3501" spans="1:3">
+      <c r="A3501" s="1">
+        <v>3499</v>
+      </c>
+      <c r="B3501">
+        <v>408</v>
+      </c>
+      <c r="C3501" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="3502" spans="1:3">
+      <c r="A3502" s="1">
+        <v>3500</v>
+      </c>
+      <c r="B3502">
+        <v>398</v>
+      </c>
+      <c r="C3502" s="2">
+        <v>45079</v>
+      </c>
+    </row>
+    <row r="3503" spans="1:3">
+      <c r="A3503" s="1">
+        <v>3501</v>
+      </c>
+      <c r="B3503">
+        <v>402</v>
+      </c>
+      <c r="C3503" s="2">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="3504" spans="1:3">
+      <c r="A3504" s="1">
+        <v>3502</v>
+      </c>
+      <c r="B3504">
+        <v>402</v>
+      </c>
+      <c r="C3504" s="2">
+        <v>45083</v>
+      </c>
+    </row>
+    <row r="3505" spans="1:3">
+      <c r="A3505" s="1">
+        <v>3503</v>
+      </c>
+      <c r="B3505">
+        <v>396</v>
+      </c>
+      <c r="C3505" s="2">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="3506" spans="1:3">
+      <c r="A3506" s="1">
+        <v>3504</v>
+      </c>
+      <c r="B3506">
+        <v>401</v>
+      </c>
+      <c r="C3506" s="2">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="3507" spans="1:3">
+      <c r="A3507" s="1">
+        <v>3505</v>
+      </c>
+      <c r="B3507">
+        <v>398</v>
+      </c>
+      <c r="C3507" s="2">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="3508" spans="1:3">
+      <c r="A3508" s="1">
+        <v>3506</v>
+      </c>
+      <c r="B3508">
+        <v>397</v>
+      </c>
+      <c r="C3508" s="2">
+        <v>45089</v>
+      </c>
+    </row>
+    <row r="3509" spans="1:3">
+      <c r="A3509" s="1">
+        <v>3507</v>
+      </c>
+      <c r="B3509">
+        <v>389</v>
+      </c>
+      <c r="C3509" s="2">
+        <v>45090</v>
+      </c>
+    </row>
+    <row r="3510" spans="1:3">
+      <c r="A3510" s="1">
+        <v>3508</v>
+      </c>
+      <c r="B3510">
+        <v>389</v>
+      </c>
+      <c r="C3510" s="2">
+        <v>45091</v>
+      </c>
+    </row>
+    <row r="3511" spans="1:3">
+      <c r="A3511" s="1">
+        <v>3509</v>
+      </c>
+      <c r="B3511">
+        <v>388</v>
+      </c>
+      <c r="C3511" s="2">
+        <v>45092</v>
+      </c>
+    </row>
+    <row r="3512" spans="1:3">
+      <c r="A3512" s="1">
+        <v>3510</v>
+      </c>
+      <c r="B3512">
+        <v>379</v>
+      </c>
+      <c r="C3512" s="2">
+        <v>45093</v>
+      </c>
+    </row>
+    <row r="3513" spans="1:3">
+      <c r="A3513" s="1">
+        <v>3511</v>
+      </c>
+      <c r="B3513">
+        <v>379</v>
+      </c>
+      <c r="C3513" s="2">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="3514" spans="1:3">
+      <c r="A3514" s="1">
+        <v>3512</v>
+      </c>
+      <c r="B3514">
+        <v>381</v>
+      </c>
+      <c r="C3514" s="2">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="3515" spans="1:3">
+      <c r="A3515" s="1">
+        <v>3513</v>
+      </c>
+      <c r="B3515">
+        <v>379</v>
+      </c>
+      <c r="C3515" s="2">
+        <v>45098</v>
+      </c>
+    </row>
+    <row r="3516" spans="1:3">
+      <c r="A3516" s="1">
+        <v>3514</v>
+      </c>
+      <c r="B3516">
+        <v>373</v>
+      </c>
+      <c r="C3516" s="2">
+        <v>45099</v>
+      </c>
+    </row>
+    <row r="3517" spans="1:3">
+      <c r="A3517" s="1">
+        <v>3515</v>
+      </c>
+      <c r="B3517">
+        <v>377</v>
+      </c>
+      <c r="C3517" s="2">
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="3518" spans="1:3">
+      <c r="A3518" s="1">
+        <v>3516</v>
+      </c>
+      <c r="B3518">
+        <v>377</v>
+      </c>
+      <c r="C3518" s="2">
+        <v>45103</v>
+      </c>
+    </row>
+    <row r="3519" spans="1:3">
+      <c r="A3519" s="1">
+        <v>3517</v>
+      </c>
+      <c r="B3519">
+        <v>372</v>
+      </c>
+      <c r="C3519" s="2">
+        <v>45104</v>
+      </c>
+    </row>
+    <row r="3520" spans="1:3">
+      <c r="A3520" s="1">
+        <v>3518</v>
+      </c>
+      <c r="B3520">
+        <v>377</v>
+      </c>
+      <c r="C3520" s="2">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="3521" spans="1:3">
+      <c r="A3521" s="1">
+        <v>3519</v>
+      </c>
+      <c r="B3521">
+        <v>376</v>
+      </c>
+      <c r="C3521" s="2">
+        <v>45106</v>
+      </c>
+    </row>
+    <row r="3522" spans="1:3">
+      <c r="A3522" s="1">
+        <v>3520</v>
+      </c>
+      <c r="B3522">
+        <v>373</v>
+      </c>
+      <c r="C3522" s="2">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="3523" spans="1:3">
+      <c r="A3523" s="1">
+        <v>3521</v>
+      </c>
+      <c r="B3523">
+        <v>368</v>
+      </c>
+      <c r="C3523" s="2">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="3524" spans="1:3">
+      <c r="A3524" s="1">
+        <v>3522</v>
+      </c>
+      <c r="B3524">
+        <v>368</v>
+      </c>
+      <c r="C3524" s="2">
+        <v>45111</v>
+      </c>
+    </row>
+    <row r="3525" spans="1:3">
+      <c r="A3525" s="1">
+        <v>3523</v>
+      </c>
+      <c r="B3525">
+        <v>363</v>
+      </c>
+      <c r="C3525" s="2">
+        <v>45112</v>
+      </c>
+    </row>
+    <row r="3526" spans="1:3">
+      <c r="A3526" s="1">
+        <v>3524</v>
+      </c>
+      <c r="B3526">
+        <v>367</v>
+      </c>
+      <c r="C3526" s="2">
+        <v>45113</v>
+      </c>
+    </row>
+    <row r="3527" spans="1:3">
+      <c r="A3527" s="1">
+        <v>3525</v>
+      </c>
+      <c r="B3527">
+        <v>367</v>
+      </c>
+      <c r="C3527" s="2">
+        <v>45114</v>
+      </c>
+    </row>
+    <row r="3528" spans="1:3">
+      <c r="A3528" s="1">
+        <v>3526</v>
+      </c>
+      <c r="B3528">
+        <v>369</v>
+      </c>
+      <c r="C3528" s="2">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="3529" spans="1:3">
+      <c r="A3529" s="1">
+        <v>3527</v>
+      </c>
+      <c r="B3529">
+        <v>367</v>
+      </c>
+      <c r="C3529" s="2">
+        <v>45118</v>
+      </c>
+    </row>
+    <row r="3530" spans="1:3">
+      <c r="A3530" s="1">
+        <v>3528</v>
+      </c>
+      <c r="B3530">
+        <v>369</v>
+      </c>
+      <c r="C3530" s="2">
+        <v>45119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
